--- a/database/industries/dode/shekarbon/product/yearly_seprated.xlsx
+++ b/database/industries/dode/shekarbon/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DFB58-89AD-4C02-B01D-0846E7531A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DE58BE-3BF6-40C2-B838-8EF1800162FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکربن-کربن‌ ایران‌</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -648,16 +633,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N78"/>
+  <dimension ref="B1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -666,13 +651,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,13 +663,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,13 +675,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -715,13 +685,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -732,13 +697,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -749,13 +709,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -764,13 +719,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -791,23 +741,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -816,15 +751,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -833,54 +763,34 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
         <v>33202</v>
       </c>
-      <c r="L11" s="11">
+      <c r="G11" s="11">
         <v>25750</v>
       </c>
-      <c r="M11" s="11">
+      <c r="H11" s="11">
         <v>34650</v>
       </c>
-      <c r="N11" s="11">
+      <c r="I11" s="11">
         <v>30748</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -888,36 +798,21 @@
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>33202</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>25750</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>34650</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>33202</v>
-      </c>
-      <c r="L12" s="13">
-        <v>25750</v>
-      </c>
-      <c r="M12" s="13">
-        <v>34650</v>
-      </c>
-      <c r="N12" s="13">
         <v>30748</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -926,54 +821,34 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="11">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11">
         <v>2919</v>
       </c>
-      <c r="L14" s="11">
+      <c r="G14" s="11">
         <v>4167</v>
       </c>
-      <c r="M14" s="11">
+      <c r="H14" s="11">
         <v>10057</v>
       </c>
-      <c r="N14" s="11">
+      <c r="I14" s="11">
         <v>10411</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -981,36 +856,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <v>0</v>
+        <v>2919</v>
       </c>
       <c r="G15" s="13">
-        <v>0</v>
+        <v>4167</v>
       </c>
       <c r="H15" s="13">
-        <v>0</v>
+        <v>10057</v>
       </c>
       <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>2919</v>
-      </c>
-      <c r="L15" s="13">
-        <v>4167</v>
-      </c>
-      <c r="M15" s="13">
-        <v>10057</v>
-      </c>
-      <c r="N15" s="13">
         <v>10411</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1019,15 +879,10 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1046,140 +901,80 @@
       <c r="I17" s="17">
         <v>0</v>
       </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>-74</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <v>-74</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13">
-        <v>0</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1187,34 +982,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="17">
-        <v>0</v>
+        <v>36121</v>
       </c>
       <c r="G21" s="17">
-        <v>0</v>
+        <v>29917</v>
       </c>
       <c r="H21" s="17">
-        <v>0</v>
+        <v>44633</v>
       </c>
       <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>36121</v>
-      </c>
-      <c r="L21" s="17">
-        <v>29917</v>
-      </c>
-      <c r="M21" s="17">
-        <v>44633</v>
-      </c>
-      <c r="N21" s="17">
         <v>41159</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1223,13 +1003,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1238,13 +1013,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1253,15 +1023,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1280,23 +1045,8 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1305,15 +1055,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1322,54 +1067,34 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="11">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
         <v>2448682</v>
       </c>
-      <c r="L28" s="11">
+      <c r="G28" s="11">
         <v>2631815</v>
       </c>
-      <c r="M28" s="11">
+      <c r="H28" s="11">
         <v>4791432</v>
       </c>
-      <c r="N28" s="11">
+      <c r="I28" s="11">
         <v>7754870</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1377,36 +1102,21 @@
         <v>0</v>
       </c>
       <c r="F29" s="13">
-        <v>0</v>
+        <v>2448682</v>
       </c>
       <c r="G29" s="13">
-        <v>0</v>
+        <v>2631815</v>
       </c>
       <c r="H29" s="13">
-        <v>0</v>
+        <v>4791432</v>
       </c>
       <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <v>2448682</v>
-      </c>
-      <c r="L29" s="13">
-        <v>2631815</v>
-      </c>
-      <c r="M29" s="13">
-        <v>4791432</v>
-      </c>
-      <c r="N29" s="13">
         <v>7754870</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1415,54 +1125,34 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="11">
+        <v>13</v>
+      </c>
+      <c r="F31" s="11">
         <v>234258</v>
       </c>
-      <c r="L31" s="11">
+      <c r="G31" s="11">
         <v>354524</v>
       </c>
-      <c r="M31" s="11">
+      <c r="H31" s="11">
         <v>1184452</v>
       </c>
-      <c r="N31" s="11">
+      <c r="I31" s="11">
         <v>2349092</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1470,36 +1160,21 @@
         <v>0</v>
       </c>
       <c r="F32" s="13">
-        <v>0</v>
+        <v>234258</v>
       </c>
       <c r="G32" s="13">
-        <v>0</v>
+        <v>354524</v>
       </c>
       <c r="H32" s="13">
-        <v>0</v>
+        <v>1184452</v>
       </c>
       <c r="I32" s="13">
-        <v>0</v>
-      </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
-        <v>234258</v>
-      </c>
-      <c r="L32" s="13">
-        <v>354524</v>
-      </c>
-      <c r="M32" s="13">
-        <v>1184452</v>
-      </c>
-      <c r="N32" s="13">
         <v>2349092</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1508,15 +1183,10 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1535,142 +1205,82 @@
       <c r="I34" s="17">
         <v>0</v>
       </c>
-      <c r="J34" s="17">
-        <v>0</v>
-      </c>
-      <c r="K34" s="17">
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
-        <v>0</v>
-      </c>
-      <c r="N34" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N35" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>-10450</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="17">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="17">
-        <v>-10450</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="13">
-        <v>0</v>
-      </c>
-      <c r="L37" s="13">
-        <v>0</v>
-      </c>
-      <c r="M37" s="13">
-        <v>0</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -1678,34 +1288,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="17">
-        <v>0</v>
+        <v>2682940</v>
       </c>
       <c r="G38" s="17">
-        <v>0</v>
+        <v>2986339</v>
       </c>
       <c r="H38" s="17">
-        <v>0</v>
+        <v>5965434</v>
       </c>
       <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0</v>
-      </c>
-      <c r="K38" s="17">
-        <v>2682940</v>
-      </c>
-      <c r="L38" s="17">
-        <v>2986339</v>
-      </c>
-      <c r="M38" s="17">
-        <v>5965434</v>
-      </c>
-      <c r="N38" s="17">
         <v>10103962</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1714,13 +1309,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1729,13 +1319,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1744,15 +1329,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1771,23 +1351,8 @@
       <c r="I42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1796,15 +1361,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1813,54 +1373,34 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="11">
+        <v>13</v>
+      </c>
+      <c r="F45" s="11">
         <v>73751039</v>
       </c>
-      <c r="L45" s="11">
+      <c r="G45" s="11">
         <v>102206408</v>
       </c>
-      <c r="M45" s="11">
+      <c r="H45" s="11">
         <v>138280866</v>
       </c>
-      <c r="N45" s="11">
+      <c r="I45" s="11">
         <v>252207298</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1869,52 +1409,32 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="11">
+        <v>13</v>
+      </c>
+      <c r="F47" s="11">
         <v>80252826</v>
       </c>
-      <c r="L47" s="11">
+      <c r="G47" s="11">
         <v>85078954</v>
       </c>
-      <c r="M47" s="11">
+      <c r="H47" s="11">
         <v>117773889</v>
       </c>
-      <c r="N47" s="11">
+      <c r="I47" s="11">
         <v>225635578</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1923,13 +1443,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1938,13 +1453,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1953,15 +1463,10 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1980,23 +1485,8 @@
       <c r="I51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2005,15 +1495,10 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2022,54 +1507,34 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="11">
+        <v>13</v>
+      </c>
+      <c r="F54" s="11">
         <v>-1799748</v>
       </c>
-      <c r="L54" s="11">
+      <c r="G54" s="11">
         <v>-1997385</v>
       </c>
-      <c r="M54" s="11">
+      <c r="H54" s="11">
         <v>-3455296</v>
       </c>
-      <c r="N54" s="11">
+      <c r="I54" s="11">
         <v>-5963953</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -2077,36 +1542,21 @@
         <v>0</v>
       </c>
       <c r="F55" s="13">
-        <v>0</v>
+        <v>-1799748</v>
       </c>
       <c r="G55" s="13">
-        <v>0</v>
+        <v>-1997385</v>
       </c>
       <c r="H55" s="13">
-        <v>0</v>
+        <v>-3455296</v>
       </c>
       <c r="I55" s="13">
-        <v>0</v>
-      </c>
-      <c r="J55" s="13">
-        <v>0</v>
-      </c>
-      <c r="K55" s="13">
-        <v>-1799748</v>
-      </c>
-      <c r="L55" s="13">
-        <v>-1997385</v>
-      </c>
-      <c r="M55" s="13">
-        <v>-3455296</v>
-      </c>
-      <c r="N55" s="13">
         <v>-5963953</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2115,54 +1565,34 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="11">
+        <v>13</v>
+      </c>
+      <c r="F57" s="11">
         <v>-158251</v>
       </c>
-      <c r="L57" s="11">
+      <c r="G57" s="11">
         <v>-331232</v>
       </c>
-      <c r="M57" s="11">
+      <c r="H57" s="11">
         <v>-1002883</v>
       </c>
-      <c r="N57" s="11">
+      <c r="I57" s="11">
         <v>-1731010</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2170,36 +1600,21 @@
         <v>0</v>
       </c>
       <c r="F58" s="13">
-        <v>0</v>
+        <v>-158251</v>
       </c>
       <c r="G58" s="13">
-        <v>0</v>
+        <v>-331232</v>
       </c>
       <c r="H58" s="13">
-        <v>0</v>
+        <v>-1002883</v>
       </c>
       <c r="I58" s="13">
-        <v>0</v>
-      </c>
-      <c r="J58" s="13">
-        <v>0</v>
-      </c>
-      <c r="K58" s="13">
-        <v>-158251</v>
-      </c>
-      <c r="L58" s="13">
-        <v>-331232</v>
-      </c>
-      <c r="M58" s="13">
-        <v>-1002883</v>
-      </c>
-      <c r="N58" s="13">
         <v>-1731010</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -2208,15 +1623,10 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -2235,142 +1645,82 @@
       <c r="I60" s="17">
         <v>0</v>
       </c>
-      <c r="J60" s="17">
-        <v>0</v>
-      </c>
-      <c r="K60" s="17">
-        <v>0</v>
-      </c>
-      <c r="L60" s="17">
-        <v>0</v>
-      </c>
-      <c r="M60" s="17">
-        <v>0</v>
-      </c>
-      <c r="N60" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N61" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F62" s="17">
+        <v>0</v>
+      </c>
+      <c r="G62" s="17">
+        <v>0</v>
+      </c>
+      <c r="H62" s="17">
+        <v>7379</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="17">
-        <v>0</v>
-      </c>
-      <c r="L62" s="17">
-        <v>0</v>
-      </c>
-      <c r="M62" s="17">
-        <v>7379</v>
-      </c>
-      <c r="N62" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="13">
-        <v>0</v>
-      </c>
-      <c r="L63" s="13">
-        <v>0</v>
-      </c>
-      <c r="M63" s="13">
-        <v>0</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -2378,34 +1728,19 @@
         <v>0</v>
       </c>
       <c r="F64" s="17">
-        <v>0</v>
+        <v>-1957999</v>
       </c>
       <c r="G64" s="17">
-        <v>0</v>
+        <v>-2328617</v>
       </c>
       <c r="H64" s="17">
-        <v>0</v>
+        <v>-4450800</v>
       </c>
       <c r="I64" s="17">
-        <v>0</v>
-      </c>
-      <c r="J64" s="17">
-        <v>0</v>
-      </c>
-      <c r="K64" s="17">
-        <v>-1957999</v>
-      </c>
-      <c r="L64" s="17">
-        <v>-2328617</v>
-      </c>
-      <c r="M64" s="17">
-        <v>-4450800</v>
-      </c>
-      <c r="N64" s="17">
         <v>-7694963</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2414,13 +1749,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2429,13 +1759,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2444,15 +1769,10 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2471,23 +1791,8 @@
       <c r="I68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2496,15 +1801,10 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2513,54 +1813,34 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="11">
+        <v>13</v>
+      </c>
+      <c r="F71" s="11">
         <v>648934</v>
       </c>
-      <c r="L71" s="11">
+      <c r="G71" s="11">
         <v>634430</v>
       </c>
-      <c r="M71" s="11">
+      <c r="H71" s="11">
         <v>1336136</v>
       </c>
-      <c r="N71" s="11">
+      <c r="I71" s="11">
         <v>1790917</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -2568,36 +1848,21 @@
         <v>0</v>
       </c>
       <c r="F72" s="13">
-        <v>0</v>
+        <v>648934</v>
       </c>
       <c r="G72" s="13">
-        <v>0</v>
+        <v>634430</v>
       </c>
       <c r="H72" s="13">
-        <v>0</v>
+        <v>1336136</v>
       </c>
       <c r="I72" s="13">
-        <v>0</v>
-      </c>
-      <c r="J72" s="13">
-        <v>0</v>
-      </c>
-      <c r="K72" s="13">
-        <v>648934</v>
-      </c>
-      <c r="L72" s="13">
-        <v>634430</v>
-      </c>
-      <c r="M72" s="13">
-        <v>1336136</v>
-      </c>
-      <c r="N72" s="13">
         <v>1790917</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2606,54 +1871,34 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="11">
+        <v>13</v>
+      </c>
+      <c r="F74" s="11">
         <v>76007</v>
       </c>
-      <c r="L74" s="11">
+      <c r="G74" s="11">
         <v>23292</v>
       </c>
-      <c r="M74" s="11">
+      <c r="H74" s="11">
         <v>181569</v>
       </c>
-      <c r="N74" s="11">
+      <c r="I74" s="11">
         <v>618082</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -2661,36 +1906,21 @@
         <v>0</v>
       </c>
       <c r="F75" s="13">
-        <v>0</v>
+        <v>76007</v>
       </c>
       <c r="G75" s="13">
-        <v>0</v>
+        <v>23292</v>
       </c>
       <c r="H75" s="13">
-        <v>0</v>
+        <v>181569</v>
       </c>
       <c r="I75" s="13">
-        <v>0</v>
-      </c>
-      <c r="J75" s="13">
-        <v>0</v>
-      </c>
-      <c r="K75" s="13">
-        <v>76007</v>
-      </c>
-      <c r="L75" s="13">
-        <v>23292</v>
-      </c>
-      <c r="M75" s="13">
-        <v>181569</v>
-      </c>
-      <c r="N75" s="13">
         <v>618082</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -2699,15 +1929,10 @@
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -2726,25 +1951,10 @@
       <c r="I77" s="17">
         <v>0</v>
       </c>
-      <c r="J77" s="17">
-        <v>0</v>
-      </c>
-      <c r="K77" s="17">
-        <v>0</v>
-      </c>
-      <c r="L77" s="17">
-        <v>0</v>
-      </c>
-      <c r="M77" s="17">
-        <v>0</v>
-      </c>
-      <c r="N77" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -2752,30 +1962,15 @@
         <v>0</v>
       </c>
       <c r="F78" s="13">
-        <v>0</v>
+        <v>724941</v>
       </c>
       <c r="G78" s="13">
-        <v>0</v>
+        <v>657722</v>
       </c>
       <c r="H78" s="13">
-        <v>0</v>
+        <v>1517705</v>
       </c>
       <c r="I78" s="13">
-        <v>0</v>
-      </c>
-      <c r="J78" s="13">
-        <v>0</v>
-      </c>
-      <c r="K78" s="13">
-        <v>724941</v>
-      </c>
-      <c r="L78" s="13">
-        <v>657722</v>
-      </c>
-      <c r="M78" s="13">
-        <v>1517705</v>
-      </c>
-      <c r="N78" s="13">
         <v>2408999</v>
       </c>
     </row>

--- a/database/industries/dode/shekarbon/product/yearly_seprated.xlsx
+++ b/database/industries/dode/shekarbon/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DE58BE-3BF6-40C2-B838-8EF1800162FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286ED14-7957-49F9-B288-B18912E6586C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -637,12 +637,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -652,7 +652,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -686,7 +686,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -720,7 +720,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -752,7 +752,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -788,7 +788,7 @@
         <v>30748</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -810,7 +810,7 @@
         <v>30748</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
@@ -846,7 +846,7 @@
         <v>10411</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -868,7 +868,7 @@
         <v>10411</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
@@ -950,7 +950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -972,7 +972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
@@ -994,7 +994,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1014,7 +1014,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1024,7 +1024,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1056,7 +1056,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>7754870</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>7754870</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2349092</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>16</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>2349092</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>21</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>22</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>23</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>10103962</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1310,7 +1310,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1320,7 +1320,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1330,7 +1330,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1362,7 +1362,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>252207298</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>225635578</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1444,7 +1444,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1454,7 +1454,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1496,7 +1496,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>-5963953</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>-5963953</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>-1731010</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>-1731010</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>38</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>39</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="16" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>-7694963</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1750,7 +1750,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1760,7 +1760,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1770,7 +1770,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>40</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1802,7 +1802,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>41</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>1790917</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>42</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1790917</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>43</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>618082</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>44</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>618082</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>45</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>23</v>
       </c>
